--- a/suppxls/Scen_demo_IRE_XBND.xlsx
+++ b/suppxls/Scen_demo_IRE_XBND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F294E57-1AC8-45AA-98AF-69AE89273978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B57425-1B50-4521-99B4-3147F549CDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{839C8D2E-9453-4DE3-9534-B724417FAD70}"/>
+    <workbookView xWindow="3278" yWindow="3278" windowWidth="21599" windowHeight="12682" xr2:uid="{839C8D2E-9453-4DE3-9534-B724417FAD70}"/>
   </bookViews>
   <sheets>
     <sheet name="all bio for ELC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>IMP</t>
+  </si>
+  <si>
+    <t>IRE_XXBND</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="C3:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -460,7 +463,7 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
